--- a/branches/merging/ValueSet-epiType.xlsx
+++ b/branches/merging/ValueSet-epiType.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from rmswi" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from LOINC" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,31 +99,22 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>100000155538</t>
-  </si>
-  <si>
-    <t>Package Leaflet</t>
+    <t>34390-5</t>
+  </si>
+  <si>
+    <t>HUMAN OTC DRUG LABEL</t>
+  </si>
+  <si>
+    <t>34391-3</t>
+  </si>
+  <si>
+    <t>HUMAN PRESCRIPTION DRUG LABEL</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/rmswi</t>
-  </si>
-  <si>
-    <t>34390-5</t>
-  </si>
-  <si>
-    <t>HUMAN OTC DRUG LABEL</t>
-  </si>
-  <si>
-    <t>34391-3</t>
-  </si>
-  <si>
-    <t>HUMAN PRESCRIPTION DRUG LABEL</t>
   </si>
   <si>
     <t>http://loinc.org</t>
@@ -394,55 +384,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -463,34 +404,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
